--- a/Commishes/excel_sheets/SE.xlsx
+++ b/Commishes/excel_sheets/SE.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{BAF23027-B390-4A79-8FC4-B14CD17D22A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF09F4D6-ECBF-48C6-8BC1-F38CBA32F38F}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Closed Won  with SE" sheetId="1" r:id="rId1"/>
@@ -3604,8 +3604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="A356" sqref="A356:A357"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13949,18 +13949,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14129,18 +14129,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C023FB-C68F-4766-BB33-E8BE2E48DC3C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9EAC26B-F077-4D4E-88D9-57CF38A72162}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9EAC26B-F077-4D4E-88D9-57CF38A72162}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C023FB-C68F-4766-BB33-E8BE2E48DC3C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Commishes/excel_sheets/SE.xlsx
+++ b/Commishes/excel_sheets/SE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://databank2-my.sharepoint.com/personal/mcalvert_databank_com/Documents/Desktop/DB_Commissions/Commishes/excel_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{BAF23027-B390-4A79-8FC4-B14CD17D22A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF09F4D6-ECBF-48C6-8BC1-F38CBA32F38F}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{BAF23027-B390-4A79-8FC4-B14CD17D22A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA96E6E0-E9A5-483C-BA55-05992A68D730}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3604,8 +3604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4733,7 +4733,8 @@
         <v>220</v>
       </c>
       <c r="D40" s="5">
-        <v>6505.89</v>
+        <f>6505.89 +30000</f>
+        <v>36505.89</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>154</v>
@@ -13949,21 +13950,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DF77A07929E5B4B9540D85859C4C5F4" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="716dfe8d013a0caa9d7a31bf7a2e273c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a06207d9-c05c-4b5b-8eba-5e312a629691" xmlns:ns3="48f3e252-83c0-465f-914e-70489b863ca3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b28114d37bc3667db3bc0067028e91d1" ns2:_="" ns3:_="">
     <xsd:import namespace="a06207d9-c05c-4b5b-8eba-5e312a629691"/>
@@ -14128,24 +14114,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9EAC26B-F077-4D4E-88D9-57CF38A72162}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C023FB-C68F-4766-BB33-E8BE2E48DC3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393E5947-A901-4621-A567-9F49E97B0CF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14162,4 +14146,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56C023FB-C68F-4766-BB33-E8BE2E48DC3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9EAC26B-F077-4D4E-88D9-57CF38A72162}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>